--- a/config/config_ml_models_development/MasterTable_process_b.xlsx
+++ b/config/config_ml_models_development/MasterTable_process_b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="10905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="12105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>TAG</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>CLASIFICACION</t>
-  </si>
-  <si>
-    <t>TAG_DESCRIPTION</t>
   </si>
   <si>
     <t>P</t>
@@ -87,6 +84,24 @@
   <si>
     <t xml:space="preserve">Variable target del proceso B y proceso C (y variable de entrada al tanque de la etapa siguiente si es existe y si es que es necesaria)
 </t>
+  </si>
+  <si>
+    <t>FEATURES_NAMES</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>MLA</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
   </si>
 </sst>
 </file>
@@ -431,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,119 +465,179 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
